--- a/medicine/Psychotrope/Mirella_Amato/Mirella_Amato.xlsx
+++ b/medicine/Psychotrope/Mirella_Amato/Mirella_Amato.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mirella Amato est une spécialiste de bière bilingue basée à Toronto, en Ontario, Canada. Elle est la première femme canadienne à devenir Cicérone Certifiée[1] et à obtenir le titre de Maître Cicérone[2]. Elle a aussi remporté le prix des accords bière et mets aux Ontario Craft Brewers Centre of Excellence Industry Choice Awards en 2012[3].
-En 2008, Amato a créé Beerology[4],[5],[6]. Amato est la cofondatrice de Cask[7]!, un groupe de promotion de la bière en cask (fût) basé à Toronto. Elle a aussi fondé la division torontoise de Barley’s Angels[8], une association internationale dédiée aux femmes qui aiment la bière.      
-Amato est apparue sur CBC Radio[9],[10], History Television[11], Breakfast Television sur Citytv[12] et Canada.com[13].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mirella Amato est une spécialiste de bière bilingue basée à Toronto, en Ontario, Canada. Elle est la première femme canadienne à devenir Cicérone Certifiée et à obtenir le titre de Maître Cicérone. Elle a aussi remporté le prix des accords bière et mets aux Ontario Craft Brewers Centre of Excellence Industry Choice Awards en 2012.
+En 2008, Amato a créé Beerology. Amato est la cofondatrice de Cask!, un groupe de promotion de la bière en cask (fût) basé à Toronto. Elle a aussi fondé la division torontoise de Barley’s Angels, une association internationale dédiée aux femmes qui aiment la bière.      
+Amato est apparue sur CBC Radio History Television, Breakfast Television sur Citytv et Canada.com.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle écrit régulièrement pour la revue TAPS[14]. Elle a aussi contribué à plusieurs entrées au Oxford Companions to Beer[15].
-Son premier livre, Beerology: Everything You Need to Know to Enjoy Beer…Even More[16], publié chez Appetite[17] (Random House), est sorti le 27 mai 2014[18].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle écrit régulièrement pour la revue TAPS. Elle a aussi contribué à plusieurs entrées au Oxford Companions to Beer.
+Son premier livre, Beerology: Everything You Need to Know to Enjoy Beer…Even More, publié chez Appetite (Random House), est sorti le 27 mai 2014.
 </t>
         </is>
       </c>
